--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jill/Desktop/Pop Estimates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB0F59-72C5-6D47-87D0-A3C67375BCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B632FD3E-6365-CC41-961C-2C9EC435B8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38120" yWindow="1380" windowWidth="27640" windowHeight="16940" xr2:uid="{E8819AC9-F326-5A4E-A045-663BC5155B24}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{E8819AC9-F326-5A4E-A045-663BC5155B24}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Variable</t>
   </si>
@@ -246,24 +246,6 @@
   </si>
   <si>
     <t>https://www.census.gov/programs-surveys/geography/guidance/geo-identifiers.html</t>
-  </si>
-  <si>
-    <t>Natural Change (residual)</t>
-  </si>
-  <si>
-    <t>International Migration (residual)</t>
-  </si>
-  <si>
-    <t>Domestic Migration (residual)</t>
-  </si>
-  <si>
-    <t>Net Migration (residual)</t>
-  </si>
-  <si>
-    <t>Birth (residual)</t>
-  </si>
-  <si>
-    <t>Death (residual)</t>
   </si>
   <si>
     <t>Link</t>
@@ -271,13 +253,97 @@
   <si>
     <t>Each annual release of the postcensal population estimates is referred to as a “‘vintage.” Each vintage includes estimates for every year since the latest decennial census, with the year of the vintage referring to the
 latest year in the data series (for example, “vintage 2022” includes estimates for 2020 through 2022).</t>
+  </si>
+  <si>
+    <t>Variable Definition</t>
+  </si>
+  <si>
+    <t>Births between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Numeric population change from between 7/1 of the year in Column H and 7/1 of the previous year. Note that 2020 change is from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Deaths between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Natural Change (number of births minus number of deaths) between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Net international migration between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Net domestic migration between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Net migration between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Residual for the period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>4/1/2020 resident total population estimates base</t>
+  </si>
+  <si>
+    <t>Number of housing units</t>
+  </si>
+  <si>
+    <t>Total population</t>
+  </si>
+  <si>
+    <t>Birth rate</t>
+  </si>
+  <si>
+    <t>Death rate</t>
+  </si>
+  <si>
+    <t>Natural Change rate</t>
+  </si>
+  <si>
+    <t>International Migration rate</t>
+  </si>
+  <si>
+    <t>Domestic Migration rate</t>
+  </si>
+  <si>
+    <t>Net Migration rate</t>
+  </si>
+  <si>
+    <t>Death rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Birth rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Natural change rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Net international migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Net domestic migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Net migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
+  </si>
+  <si>
+    <t>Estimate of new housing units based on new residential building permits</t>
+  </si>
+  <si>
+    <t>4/1/2020 group quarters total population estimates base</t>
+  </si>
+  <si>
+    <t>Resident total population estimate, as of July 1 unless otherwise noted.</t>
+  </si>
+  <si>
+    <t>Group quarters total population estimate, as of July 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,6 +387,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -512,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -563,6 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -571,6 +645,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -907,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B106577-3FFC-394A-8C6A-44CD2CF275DA}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,31 +998,33 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="24"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" customWidth="1"/>
-    <col min="7" max="7" width="65.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="41.1640625" customWidth="1"/>
+    <col min="8" max="8" width="65.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
@@ -951,28 +1036,29 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="37"/>
       <c r="C3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="37"/>
       <c r="C4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="38"/>
       <c r="C5" s="23" t="s">
@@ -980,10 +1066,11 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -995,19 +1082,20 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="37"/>
       <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="38"/>
       <c r="C8" s="23" t="s">
@@ -1015,10 +1103,11 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -1028,12 +1117,13 @@
       <c r="C9" s="28"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
@@ -1045,34 +1135,35 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="37"/>
       <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="37"/>
       <c r="C12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="38"/>
       <c r="C13" s="23" t="s">
@@ -1080,45 +1171,47 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>77</v>
+      <c r="B14" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="42"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="37" t="s">
         <v>60</v>
@@ -1128,10 +1221,11 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
@@ -1143,10 +1237,11 @@
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="12"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="37"/>
       <c r="C19" s="21" t="s">
@@ -1154,10 +1249,11 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="18"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="37"/>
       <c r="C20" s="21" t="s">
@@ -1165,10 +1261,11 @@
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="18"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="37"/>
       <c r="C21" s="21" t="s">
@@ -1176,10 +1273,11 @@
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="18"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="38"/>
       <c r="C22" s="31" t="s">
@@ -1187,10 +1285,11 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="13"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>0</v>
       </c>
@@ -1198,385 +1297,451 @@
       <c r="C23" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="F23" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="G23" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="37"/>
       <c r="C24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="37"/>
       <c r="C25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="37"/>
       <c r="C26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="37"/>
       <c r="C27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="37"/>
       <c r="C28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="37"/>
       <c r="C29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="37"/>
       <c r="C30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="37"/>
       <c r="C31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="37"/>
       <c r="C32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
         <v>17</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="37"/>
       <c r="C33" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
         <v>17</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="37"/>
       <c r="C34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="37"/>
       <c r="C35" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="37"/>
       <c r="C36" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" t="s">
         <v>17</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="37"/>
       <c r="C37" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
         <v>17</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="37"/>
       <c r="C38" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="37"/>
       <c r="C39" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="37"/>
       <c r="C40" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
         <v>17</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="37"/>
       <c r="C41" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="37"/>
       <c r="C42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="37"/>
       <c r="C43" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" t="s">
         <v>18</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="38"/>
       <c r="C44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="B14:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1" xr:uid="{A7A369D2-5625-FD49-A0EC-079579F991F5}"/>
-    <hyperlink ref="G13" r:id="rId2" xr:uid="{E3A8A790-587A-6F46-9DA9-FBB80101307D}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{1C6283B7-3086-804D-BCDB-4105D2D85966}"/>
-    <hyperlink ref="G11" r:id="rId4" xr:uid="{DF7E95AC-14B2-5543-8828-2ADED1FC3974}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{719A79C9-8C8E-814C-B5BF-BC26C1442569}"/>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{A7A369D2-5625-FD49-A0EC-079579F991F5}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{E3A8A790-587A-6F46-9DA9-FBB80101307D}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{1C6283B7-3086-804D-BCDB-4105D2D85966}"/>
+    <hyperlink ref="H11" r:id="rId4" xr:uid="{DF7E95AC-14B2-5543-8828-2ADED1FC3974}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{719A79C9-8C8E-814C-B5BF-BC26C1442569}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_dictionary.xlsx
+++ b/data_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jill/Desktop/Pop Estimates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jill/Desktop/Pop Estimates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B632FD3E-6365-CC41-961C-2C9EC435B8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45076CAA-63F6-5F4D-990F-EABF22E55C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{E8819AC9-F326-5A4E-A045-663BC5155B24}"/>
+    <workbookView xWindow="-32380" yWindow="160" windowWidth="30240" windowHeight="17620" xr2:uid="{E8819AC9-F326-5A4E-A045-663BC5155B24}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="2" r:id="rId1"/>
@@ -258,30 +258,9 @@
     <t>Variable Definition</t>
   </si>
   <si>
-    <t>Births between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
     <t>Numeric population change from between 7/1 of the year in Column H and 7/1 of the previous year. Note that 2020 change is from 4/1/2020 to 7/1/2020.</t>
   </si>
   <si>
-    <t>Deaths between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Natural Change (number of births minus number of deaths) between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Net international migration between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Net domestic migration between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Net migration between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Residual for the period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
     <t>4/1/2020 resident total population estimates base</t>
   </si>
   <si>
@@ -309,24 +288,6 @@
     <t>Net Migration rate</t>
   </si>
   <si>
-    <t>Death rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Birth rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Natural change rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Net international migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Net domestic migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
-    <t>Net migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year.</t>
-  </si>
-  <si>
     <t>Estimate of new housing units based on new residential building permits</t>
   </si>
   <si>
@@ -337,6 +298,45 @@
   </si>
   <si>
     <t>Group quarters total population estimate, as of July 1</t>
+  </si>
+  <si>
+    <t>Births between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Deaths between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Natural Change (number of births minus number of deaths) between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Net international migration between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Net domestic migration between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Net migration between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Residual for the period between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Birth rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Death rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Natural change rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Net international migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Net domestic migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
+  </si>
+  <si>
+    <t>Net migration rate for the time period between 6/30 of the year in Column H and 7/1 of the previous year. Note that 2020 refers to the time period from 4/1/2020 to 7/1/2020.</t>
   </si>
 </sst>
 </file>
@@ -637,6 +637,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -645,15 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B106577-3FFC-394A-8C6A-44CD2CF275DA}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1013,13 +1013,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
       <c r="H1" s="19" t="s">
         <v>70</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -1195,7 +1195,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="43"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="20" t="s">
         <v>52</v>
       </c>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="43"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="20" t="s">
         <v>53</v>
       </c>
@@ -1317,8 +1317,8 @@
       <c r="C24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>98</v>
+      <c r="D24" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="E24" t="s">
         <v>65</v>
@@ -1337,8 +1337,8 @@
       <c r="C25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="44" t="s">
-        <v>74</v>
+      <c r="D25" s="41" t="s">
+        <v>73</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
@@ -1351,14 +1351,14 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="37"/>
       <c r="C26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="44" t="s">
-        <v>73</v>
+      <c r="D26" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
@@ -1371,14 +1371,14 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="37"/>
       <c r="C27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>75</v>
+      <c r="D27" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
@@ -1391,14 +1391,14 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="37"/>
       <c r="C28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="44" t="s">
-        <v>76</v>
+      <c r="D28" s="41" t="s">
+        <v>89</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -1411,14 +1411,14 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="37"/>
       <c r="C29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>77</v>
+      <c r="D29" s="41" t="s">
+        <v>90</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -1431,14 +1431,14 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="37"/>
       <c r="C30" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="44" t="s">
-        <v>78</v>
+      <c r="D30" s="41" t="s">
+        <v>91</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
@@ -1451,14 +1451,14 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="37"/>
       <c r="C31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="44" t="s">
-        <v>79</v>
+      <c r="D31" s="41" t="s">
+        <v>92</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
@@ -1471,14 +1471,14 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="37"/>
       <c r="C32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="44" t="s">
-        <v>80</v>
+      <c r="D32" s="41" t="s">
+        <v>93</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
@@ -1491,14 +1491,14 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="37"/>
       <c r="C33" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>91</v>
+        <v>77</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
@@ -1511,14 +1511,14 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="37"/>
       <c r="C34" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
@@ -1531,14 +1531,14 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="37"/>
       <c r="C35" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>92</v>
+        <v>79</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
@@ -1551,14 +1551,14 @@
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="37"/>
       <c r="C36" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -1571,14 +1571,14 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="37"/>
       <c r="C37" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
@@ -1591,14 +1591,14 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="37"/>
       <c r="C38" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
@@ -1617,8 +1617,8 @@
       <c r="C39" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>81</v>
+      <c r="D39" s="41" t="s">
+        <v>74</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
@@ -1637,8 +1637,8 @@
       <c r="C40" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="44" t="s">
-        <v>97</v>
+      <c r="D40" s="41" t="s">
+        <v>84</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
@@ -1657,8 +1657,8 @@
       <c r="C41" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="44" t="s">
-        <v>99</v>
+      <c r="D41" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -1677,8 +1677,8 @@
       <c r="C42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="44" t="s">
-        <v>82</v>
+      <c r="D42" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -1697,8 +1697,8 @@
       <c r="C43" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="44" t="s">
-        <v>83</v>
+      <c r="D43" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -1717,8 +1717,8 @@
       <c r="C44" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="46" t="s">
-        <v>96</v>
+      <c r="D44" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>19</v>
